--- a/results/mp/deberta/corona/confidence/210/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -118,18 +118,18 @@
     <t>healthy</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -142,10 +142,10 @@
     <t>well</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
   </si>
   <si>
     <t>hand</t>
@@ -1466,13 +1466,13 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6926406926406926</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L21">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="M21">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="N21">
         <v>0.95</v>
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1492,25 +1492,25 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6862745098039216</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L22">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="N22">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O22">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1518,25 +1518,25 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6764705882352942</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="N23">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="O23">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1544,25 +1544,25 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6737588652482269</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L24">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="M24">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1674,25 +1674,25 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5878787878787879</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L29">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="N29">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>136</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1700,13 +1700,13 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5714285714285714</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="10:17">
